--- a/updates.xlsx
+++ b/updates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassavana_kaggle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86129742-C2B9-8449-822E-3615680959B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5F291-6F4A-D04D-B7AD-59A4A146C712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>cutmix variation</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +485,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,32 +540,42 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5F291-6F4A-D04D-B7AD-59A4A146C712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9648237-E1DE-3A45-A330-835132E22C09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,58 +34,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>EffNet-B4
+    <t>Val_acc</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>To-do list</t>
+  </si>
+  <si>
+    <t>kfold averaging</t>
+  </si>
+  <si>
+    <t>visiontransformer</t>
+  </si>
+  <si>
+    <t>snapmix/fmix</t>
+  </si>
+  <si>
+    <t>ensemble</t>
+  </si>
+  <si>
+    <t>tta</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 4x tta and (randomcrop, flips transpose) </t>
+  </si>
+  <si>
+    <t>cutmix variation</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Modification
+ - Replace scheduler with ReduceOnPlateau 
+ - Switch to 5fold instead of single fold</t>
+  </si>
+  <si>
+    <t>Radam + Lookahead</t>
+  </si>
+  <si>
+    <t>Bitempered loss/ Label smoothing loss/ Focal cosine loss</t>
+  </si>
+  <si>
+    <t>EffNet-B4 (baseline)
 - single fold (10 epoch)
 - noisystudent pretrained weights
 - cosineannealingwarmstart
 - simple augmentation (flips, crops, cutout)</t>
   </si>
   <si>
-    <t>Val_acc</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>To-do list</t>
-  </si>
-  <si>
-    <t>kfold averaging</t>
-  </si>
-  <si>
-    <t>visiontransformer</t>
-  </si>
-  <si>
-    <t>snapmix/fmix</t>
-  </si>
-  <si>
-    <t>ensemble</t>
-  </si>
-  <si>
-    <t>tta</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + 4x tta and (randomcrop, flips transpose) </t>
-  </si>
-  <si>
-    <t>cutmix variation</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t xml:space="preserve"> - without tta</t>
   </si>
 </sst>
 </file>
@@ -130,12 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,31 +154,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,103 +512,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="8" max="8" width="49.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.89</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="4">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>15</v>
+      <c r="I6" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="4"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9648237-E1DE-3A45-A330-835132E22C09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF2638-C2D8-B64F-9874-08FE1FD8C4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>cutmix variation</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
   <si>
     <t>no</t>
@@ -97,6 +100,39 @@
   </si>
   <si>
     <t xml:space="preserve"> - without tta</t>
+  </si>
+  <si>
+    <t>Single model</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visiontransformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - AdamW, ReduceOnPlateau, vit_base_patch32_384, epoch=10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - sgd (mometum=0.9), CosineAnnealing, vit_large_patch32_384, epoch=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sgd (mometum=0.9), ReduceOnPlateau, vit_base_patch16_384, epoch=20</t>
   </si>
 </sst>
 </file>
@@ -120,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,20 +215,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -198,6 +246,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,19 +576,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -546,19 +596,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.89</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -566,17 +616,17 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -584,17 +634,18 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -602,67 +653,138 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>13</v>
+      <c r="I6" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>13</v>
+      <c r="I7" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>13</v>
+      <c r="I8" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H11" s="4"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.876</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.874</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF2638-C2D8-B64F-9874-08FE1FD8C4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0489F1-47CF-C543-9D16-91B67B04392B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t xml:space="preserve"> - sgd (mometum=0.9), CosineAnnealing, vit_large_patch32_384, epoch=10</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Sgd (mometum=0.9), ReduceOnPlateau, vit_base_patch16_384, epoch=20</t>
+    <t xml:space="preserve"> - Sgd (mometum=0.9, decay=0.01), ReduceOnPlateau, vit_large_patch32_384, epoch=20</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,9 +737,6 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
@@ -748,10 +745,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
@@ -759,9 +753,6 @@
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0489F1-47CF-C543-9D16-91B67B04392B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D70EB-317A-F241-81BF-FEC170DCF8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Model</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>Single model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - sgd (mometum=0.9), CosineAnnealing, vit_large_patch32_384, epoch=10</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Centercop perform better</t>
+  </si>
+  <si>
+    <t>Discussion thread</t>
+  </si>
+  <si>
+    <t>taylor CCE</t>
+  </si>
+  <si>
+    <t>effnetb3 with imagenet 0.90?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- Adam, ReduceOnPLateau, vit_base_patch16_384, epoch=20</t>
   </si>
   <si>
     <r>
@@ -125,14 +146,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- - AdamW, ReduceOnPlateau, vit_base_patch32_384, epoch=10</t>
+ - Adam, ReduceOnPlateau, vit_base_patch32_384, epoch=10</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> - sgd (mometum=0.9), CosineAnnealing, vit_large_patch32_384, epoch=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Sgd (mometum=0.9, decay=0.01), ReduceOnPlateau, vit_large_patch32_384, epoch=20</t>
+    <t>vit with self ensemble effnet 0.906</t>
   </si>
 </sst>
 </file>
@@ -246,8 +264,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,16 +580,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="49.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,10 +662,13 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -693,13 +716,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -715,67 +743,94 @@
       <c r="H14" s="5"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5">
         <v>0.876</v>
       </c>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.874</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D70EB-317A-F241-81BF-FEC170DCF8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD4022-0F48-7442-870E-8BC37B1F7CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>vit with self ensemble effnet 0.906</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 5fold </t>
+  </si>
+  <si>
+    <t>training with svm as 2nd stage</t>
+  </si>
+  <si>
+    <t>EffnetB4 + Vit_base16 (5fold ensemble + TTA w/o transpose)</t>
+  </si>
+  <si>
+    <t>validation for ensemble</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -235,7 +250,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -266,6 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,19 +611,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -616,19 +631,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.89</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -636,17 +651,17 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -654,21 +669,21 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>0.89800000000000002</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -676,75 +691,101 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="H7" s="5" t="s">
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H13" s="5"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H14" s="5"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -754,13 +795,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H20" t="s">
@@ -771,66 +812,80 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.876</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="H21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.88600000000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="4">
         <v>0.874</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD4022-0F48-7442-870E-8BC37B1F7CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E39A8-1F6F-9C48-ABCA-C80E2221AEB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>w/o TTA</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,14 +725,21 @@
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>14</v>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>0.90100000000000002</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>12</v>
       </c>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E39A8-1F6F-9C48-ABCA-C80E2221AEB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BEFFA-DCCF-8F4B-9E14-F88820672E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -169,6 +169,13 @@
   </si>
   <si>
     <t>w/o TTA</t>
+  </si>
+  <si>
+    <t>EffnetB4
+- cosineannealingwarmstart
+- randomcrop, hflip, vflip, transpose, cutout, 480
+- adam
+- single-fold</t>
   </si>
 </sst>
 </file>
@@ -600,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,8 +754,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="G9" t="s">

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BEFFA-DCCF-8F4B-9E14-F88820672E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0136A47-319D-EA41-A0D3-981BD4B68282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="2500" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -176,6 +176,29 @@
 - randomcrop, hflip, vflip, transpose, cutout, 480
 - adam
 - single-fold</t>
+  </si>
+  <si>
+    <t>0.8848/0.8897</t>
+  </si>
+  <si>
+    <t>EffnetB4
+- cosineannealingwarmstart
+- randomcrop, hflip, vflip, transpose, cutout, 512
+- adam
+- single-fold</t>
+  </si>
+  <si>
+    <t>0.884/0.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vit_base_patch16
+- cosineannealingwarmstart
+- randomcrop, hflip, vflip, transpose, cutout, 384
+- adam
+- single-fold</t>
+  </si>
+  <si>
+    <t>0.881/0.889</t>
   </si>
 </sst>
 </file>
@@ -258,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,6 +314,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,16 +634,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="49.1640625" bestFit="1" customWidth="1"/>
@@ -693,8 +723,8 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>13</v>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -714,8 +744,8 @@
       <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>14</v>
+      <c r="I6" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -732,8 +762,8 @@
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
+      <c r="I7" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -761,7 +791,9 @@
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="G9" t="s">
         <v>22</v>
@@ -773,9 +805,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="G10" t="s">
         <v>22</v>
@@ -785,7 +824,14 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
@@ -806,101 +852,81 @@
       <c r="H14" s="4"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="14" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C25" s="4">
         <v>0.876</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="H21" t="s">
+      <c r="D25" s="4"/>
+      <c r="H25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C26" s="4">
         <v>0.88600000000000001</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D26" s="4">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C27" s="4">
         <v>0.88900000000000001</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D27" s="4">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C28" s="4">
         <v>0.874</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
@@ -908,6 +934,26 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0136A47-319D-EA41-A0D3-981BD4B68282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694DFE5C-7557-D048-A2EF-B3DF96E15DD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>0.881/0.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - labelsmoothing</t>
+  </si>
+  <si>
+    <t>0.891/0.892</t>
   </si>
 </sst>
 </file>
@@ -634,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,14 +807,11 @@
       <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
+      <c r="I9" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -816,122 +819,131 @@
         <v>39</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="G10" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="D12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H13" s="4"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H14" s="4"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="4"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>0.876</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="H25" t="s">
+      <c r="D26" s="4"/>
+      <c r="H26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>0.88600000000000001</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C28" s="4">
         <v>0.88900000000000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="4">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>0.874</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
@@ -954,6 +966,11 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694DFE5C-7557-D048-A2EF-B3DF96E15DD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E0AA6-74D9-CD4B-ABD8-5CED6D406566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E0AA6-74D9-CD4B-ABD8-5CED6D406566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8CE3D-576D-CC40-B3CE-8701FB17FCAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="21420" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -69,9 +69,6 @@
     <t>done</t>
   </si>
   <si>
-    <t xml:space="preserve"> + 4x tta and (randomcrop, flips transpose) </t>
-  </si>
-  <si>
     <t>cutmix variation</t>
   </si>
   <si>
@@ -81,25 +78,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>Modification
- - Replace scheduler with ReduceOnPlateau 
- - Switch to 5fold instead of single fold</t>
-  </si>
-  <si>
     <t>Radam + Lookahead</t>
   </si>
   <si>
     <t>Bitempered loss/ Label smoothing loss/ Focal cosine loss</t>
-  </si>
-  <si>
-    <t>EffNet-B4 (baseline)
-- single fold (10 epoch)
-- noisystudent pretrained weights
-- cosineannealingwarmstart
-- simple augmentation (flips, crops, cutout)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - without tta</t>
   </si>
   <si>
     <t>Single model</t>
@@ -159,52 +141,27 @@
     <t>training with svm as 2nd stage</t>
   </si>
   <si>
-    <t>EffnetB4 + Vit_base16 (5fold ensemble + TTA w/o transpose)</t>
-  </si>
-  <si>
     <t>validation for ensemble</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>w/o TTA</t>
-  </si>
-  <si>
-    <t>EffnetB4
+    <t>EffNet-B4 (baseline)
+- 5 fold (10 epoch)
 - cosineannealingwarmstart
-- randomcrop, hflip, vflip, transpose, cutout, 480
-- adam
-- single-fold</t>
-  </si>
-  <si>
-    <t>0.8848/0.8897</t>
-  </si>
-  <si>
-    <t>EffnetB4
+- simple augmentation (flips, crops, cutout, tranpose)
+ - Labelsmoothloss</t>
+  </si>
+  <si>
+    <t>EffNet-B4 (baseline)
+- 5 fold (10 epoch)
 - cosineannealingwarmstart
-- randomcrop, hflip, vflip, transpose, cutout, 512
-- adam
-- single-fold</t>
-  </si>
-  <si>
-    <t>0.884/0.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vit_base_patch16
-- cosineannealingwarmstart
-- randomcrop, hflip, vflip, transpose, cutout, 384
-- adam
-- single-fold</t>
-  </si>
-  <si>
-    <t>0.881/0.889</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - labelsmoothing</t>
-  </si>
-  <si>
-    <t>0.891/0.892</t>
+- simple augmentation (flips, crops, cutout, tranpose)
+ - CE loss</t>
+  </si>
+  <si>
+    <t>0.884/0.891</t>
   </si>
 </sst>
 </file>
@@ -643,7 +600,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,19 +630,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.88400000000000001</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
@@ -693,17 +648,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>0.88800000000000001</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
@@ -711,20 +664,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>0.89800000000000002</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>5</v>
@@ -734,123 +680,80 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>0.89300000000000002</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="4">
-        <v>0.90300000000000002</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>43</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4"/>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>41</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" s="12"/>
     </row>
@@ -871,17 +774,17 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H23" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>1</v>
@@ -890,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -898,19 +801,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>0.876</v>
       </c>
       <c r="D26" s="4"/>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <v>0.88600000000000001</v>
@@ -919,12 +822,12 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>0.88900000000000001</v>
@@ -935,7 +838,7 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4">
         <v>0.874</v>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8CE3D-576D-CC40-B3CE-8701FB17FCAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643B7E2-8ACA-204B-AD33-ABA0EC4EE2AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="21420" windowHeight="17440" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="1780" yWindow="820" windowWidth="20340" windowHeight="18020" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -162,6 +162,16 @@
   </si>
   <si>
     <t>0.884/0.891</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - heavy augs with cutmix
+- ce loss</t>
+  </si>
+  <si>
+    <t>0.885/0.894</t>
+  </si>
+  <si>
+    <t>0.887/0.897</t>
   </si>
 </sst>
 </file>
@@ -600,7 +610,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +650,9 @@
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>0.89700000000000002</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
@@ -655,7 +667,9 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>4</v>
@@ -664,9 +678,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="G5" t="s">

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643B7E2-8ACA-204B-AD33-ABA0EC4EE2AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52272441-762D-AF42-8073-9BE0EAD1D745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="820" windowWidth="20340" windowHeight="18020" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="20340" windowHeight="16040" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -164,14 +164,17 @@
     <t>0.884/0.891</t>
   </si>
   <si>
-    <t xml:space="preserve"> - heavy augs with cutmix
+    <t>0.885/0.894</t>
+  </si>
+  <si>
+    <t>0.887/0.897</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - heavy augs with cutmix (p=0.25)
 - ce loss</t>
   </si>
   <si>
-    <t>0.885/0.894</t>
-  </si>
-  <si>
-    <t>0.887/0.897</t>
+    <t xml:space="preserve"> - adam, cosineannealing, labelsmooth, cutmix(0.4), vit_large_patch16_384</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -683,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -866,8 +869,10 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52272441-762D-AF42-8073-9BE0EAD1D745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85660E-BC91-D349-999F-0FC1A794CCEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="20340" windowHeight="16040" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -174,7 +174,22 @@
 - ce loss</t>
   </si>
   <si>
-    <t xml:space="preserve"> - adam, cosineannealing, labelsmooth, cutmix(0.4), vit_large_patch16_384</t>
+    <t>0.886/0.894</t>
+  </si>
+  <si>
+    <t>0.884/0.894</t>
+  </si>
+  <si>
+    <t>bitemper loss with heavy augs (w/o cutmix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - adam, cosineannealing, labelsmooth, cutmix(0.4), vit_base16_384 5fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ^ + vit_large_base16_384</t>
+  </si>
+  <si>
+    <t>focal cosine loss</t>
   </si>
 </sst>
 </file>
@@ -257,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,8 +722,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="G6" t="s">
         <v>29</v>
@@ -789,7 +814,9 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -871,13 +898,17 @@
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85660E-BC91-D349-999F-0FC1A794CCEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEB3A1-D916-9D4F-8089-387702638D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>pending</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Radam + Lookahead</t>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - adam, cosineannealing, labelsmooth, cutmix(0.4), vit_base16_384 5fold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - ^ + vit_large_base16_384</t>
   </si>
   <si>
     <t>focal cosine loss</t>
@@ -631,7 +625,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="4">
         <v>0.89700000000000002</v>
@@ -686,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -704,15 +698,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>5</v>
@@ -726,17 +720,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4"/>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>12</v>
@@ -760,8 +754,8 @@
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>13</v>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -769,10 +763,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>12</v>
@@ -790,10 +784,10 @@
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="12"/>
     </row>
@@ -802,9 +796,11 @@
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
@@ -815,7 +811,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="12"/>
     </row>
@@ -825,17 +821,17 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>1</v>
@@ -844,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -852,19 +848,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>0.876</v>
       </c>
       <c r="D26" s="4"/>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4">
         <v>0.88600000000000001</v>
@@ -873,12 +869,12 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>0.88900000000000001</v>
@@ -889,7 +885,7 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4">
         <v>0.874</v>
@@ -898,17 +894,15 @@
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEB3A1-D916-9D4F-8089-387702638D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A1DFF-A63D-B045-AF9E-C1D6E461AD3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>focal cosine loss</t>
+  </si>
+  <si>
+    <t>EffNet-B4 (baseline)
+- 5 fold (12 epoch)
+- cosineannealingwarmstart
+- heavy augmentation with cutmix (0.4)
+- cutmix at epoch &gt;1 
+ - Taylor CE with Labelsmooth</t>
   </si>
 </sst>
 </file>
@@ -624,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +646,7 @@
     <col min="8" max="8" width="49.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -655,10 +663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
@@ -675,10 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
@@ -693,10 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
@@ -715,10 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
@@ -736,8 +732,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="15"/>
       <c r="D7" s="4"/>
       <c r="H7" s="4" t="s">
@@ -747,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -758,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
@@ -772,14 +770,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="16"/>
       <c r="D10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
@@ -791,7 +789,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -802,20 +800,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H15" s="4"/>
       <c r="I15" s="12"/>
     </row>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A1DFF-A63D-B045-AF9E-C1D6E461AD3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3653131C-8212-9941-BD6E-67E37AF82587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -187,11 +187,26 @@
   </si>
   <si>
     <t>EffNet-B4 (baseline)
-- 5 fold (12 epoch)
+- 5 fold (15 epoch)
 - cosineannealingwarmstart
-- heavy augmentation with cutmix (0.4)
+- heavy augmentation with cutmix (0.5)
 - cutmix at epoch &gt;1 
- - Taylor CE with Labelsmooth</t>
+ - Taylor CE with Labelsmooth (0.3)</t>
+  </si>
+  <si>
+    <t>Vit_base16_384
+- 5 fold (15 epoch)
+- cosineannealingwarmstart
+- heavy augmentation with cutmix (0.5)
+- cutmix at epoch &gt;1 
+ - Taylor CE with Labelsmooth (0.3) (not good)
+- labelsmooh (0.3)</t>
+  </si>
+  <si>
+    <t>0.889/0.896</t>
+  </si>
+  <si>
+    <t>0.897/0.898</t>
   </si>
 </sst>
 </file>
@@ -632,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,7 +751,9 @@
       <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="H7" s="4" t="s">
         <v>7</v>
@@ -899,9 +916,13 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+    <row r="31" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3653131C-8212-9941-BD6E-67E37AF82587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DACA98-F52C-1B4E-B948-368AD3C96011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="960" yWindow="580" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -183,9 +183,6 @@
     <t xml:space="preserve"> - adam, cosineannealing, labelsmooth, cutmix(0.4), vit_base16_384 5fold</t>
   </si>
   <si>
-    <t>focal cosine loss</t>
-  </si>
-  <si>
     <t>EffNet-B4 (baseline)
 - 5 fold (15 epoch)
 - cosineannealingwarmstart
@@ -207,6 +204,18 @@
   </si>
   <si>
     <t>0.897/0.898</t>
+  </si>
+  <si>
+    <t>labeledsmooth (0.3)</t>
+  </si>
+  <si>
+    <t>bi-tempered (smooth=.2, t2=2,t1=0.8)</t>
+  </si>
+  <si>
+    <t>0.896/0.898</t>
+  </si>
+  <si>
+    <t>0.897/0.899</t>
   </si>
 </sst>
 </file>
@@ -645,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +727,6 @@
         <v>33</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
       <c r="G5" t="s">
         <v>17</v>
       </c>
@@ -737,6 +745,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
       <c r="G6" t="s">
         <v>28</v>
       </c>
@@ -749,12 +758,14 @@
     </row>
     <row r="7" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.89800000000000002</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
@@ -762,10 +773,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+    <row r="8" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.89900000000000002</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
@@ -773,10 +790,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+    <row r="9" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.89900000000000002</v>
+      </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
@@ -813,8 +836,8 @@
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>12</v>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -824,105 +847,105 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.876</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="H24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.88500000000000001</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
-        <v>0.876</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="H26" t="s">
-        <v>24</v>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0.874</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.874</v>
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>36</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -934,16 +957,6 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DACA98-F52C-1B4E-B948-368AD3C96011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049678CE-E384-394D-A409-A00A8014EB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="580" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="3380" yWindow="760" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Model</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>0.897/0.899</t>
+  </si>
+  <si>
+    <t>0.899/0.9 (with transpose)</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,6 +668,7 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="49.1640625" bestFit="1" customWidth="1"/>
@@ -773,15 +777,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.89900000000000002</v>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
@@ -845,7 +849,9 @@
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H21" s="14" t="s">

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049678CE-E384-394D-A409-A00A8014EB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12A2D4-B942-D348-BE95-6F0506908079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="760" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>0.899/0.9 (with transpose)</t>
+  </si>
+  <si>
+    <t>Vit_base16_384
+- 5 fold (12 epoch)
+- cosineannealingwarmstart
+- fmix with cutmix (0.5)
+- mix at epoch &gt;1 
+- labelsmooh (0.3)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +668,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,10 +950,14 @@
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+      <c r="D29" s="4">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12A2D4-B942-D348-BE95-6F0506908079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA2386-89CF-F745-B601-8D26B544E60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="760" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA2386-89CF-F745-B601-8D26B544E60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389E0D0-825C-AD48-9A88-BDCD5B296A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="760" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Model</t>
   </si>
@@ -227,6 +227,33 @@
 - fmix with cutmix (0.5)
 - mix at epoch &gt;1 
 - labelsmooh (0.3)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resnext_50_32d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Adam, CosineAnneal, epoch=10, swa_start=2, swa_scheduler=8, 1e-4</t>
+    </r>
+  </si>
+  <si>
+    <t>0.888/0.885</t>
   </si>
 </sst>
 </file>
@@ -665,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,6 +1003,41 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389E0D0-825C-AD48-9A88-BDCD5B296A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099C48F-1746-5847-AF80-F58D1EA11CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -254,6 +254,17 @@
   </si>
   <si>
     <t>0.888/0.885</t>
+  </si>
+  <si>
+    <t>0.896/0.892</t>
+  </si>
+  <si>
+    <t>EffNet-B4 (baseline)
+- 5 fold (15 epoch)
+- cosineannealingwarmstart
+- heavy augmentation  (fmix + cutmix)
+- bitempered (0.8, 2.0, 0.3)
+- drop_path = 0</t>
   </si>
 </sst>
 </file>
@@ -694,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,9 +860,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="16"/>
+    <row r="10" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="13"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099C48F-1746-5847-AF80-F58D1EA11CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCDB2E3-86F9-B24C-AD79-ED00EC3E1DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -221,14 +221,6 @@
     <t>0.899/0.9 (with transpose)</t>
   </si>
   <si>
-    <t>Vit_base16_384
-- 5 fold (12 epoch)
-- cosineannealingwarmstart
-- fmix with cutmix (0.5)
-- mix at epoch &gt;1 
-- labelsmooh (0.3)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -265,6 +257,57 @@
 - heavy augmentation  (fmix + cutmix)
 - bitempered (0.8, 2.0, 0.3)
 - drop_path = 0</t>
+  </si>
+  <si>
+    <t>Vit_base16_384
+- 5 fold (15 epoch)
+- warmup scheduler
+- fmix  (0.5)
+- mix at epoch &gt;1 
+- symmce (0.3)</t>
+  </si>
+  <si>
+    <t>0.890/0.893</t>
+  </si>
+  <si>
+    <t>Resnext_50_32d
+ - Adam
+- Warmup scheduler
+- epoch=15
+- symmetricce
+- cutmix + fmix (epoch&gt;1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inception_resnet_V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Adam
+- consinewarmrestart
+- epoch = 15
+- labelsmoothloss
+- cutmix
+</t>
+    </r>
+  </si>
+  <si>
+    <t>0.890/0.880</t>
   </si>
 </sst>
 </file>
@@ -703,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I45"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,10 +905,10 @@
     </row>
     <row r="10" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4"/>
       <c r="H10" s="4"/>
@@ -998,7 +1041,7 @@
     </row>
     <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1031,16 +1074,20 @@
     </row>
     <row r="42" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="4"/>
+    <row r="43" spans="2:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1052,6 +1099,26 @@
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCDB2E3-86F9-B24C-AD79-ED00EC3E1DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE79B1-E17E-E346-BC76-52691BACFBE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -432,6 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,12 +1057,12 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1082,10 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="2:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>44242</v>
+      </c>
       <c r="B43" s="5" t="s">
         <v>54</v>
       </c>
@@ -1090,12 +1094,12 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE79B1-E17E-E346-BC76-52691BACFBE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E15D3-86F3-1940-9D59-7B531F6C69EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Model</t>
   </si>
@@ -308,6 +308,64 @@
   </si>
   <si>
     <t>0.890/0.880</t>
+  </si>
+  <si>
+    <t>fmix/cutmix</t>
+  </si>
+  <si>
+    <t>knowledge distillation</t>
+  </si>
+  <si>
+    <t>swa</t>
+  </si>
+  <si>
+    <t>2019 data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nfnet (nf-resnet50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Adam
+- warmupscheduler
+- epoch = 15
+- celoss
+- cutmix+fmix
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Resnet_200d
+ - Adam
+- warmupscheduler
+- epoch = 15
+- labelsmoothloss
+- cutmix
+</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - higher smoothing -&gt; better performance
+ - SWA doesn’t work
+ - More augmentation (heavy augs) -&gt; better performance</t>
   </si>
 </sst>
 </file>
@@ -390,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -433,6 +491,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I50"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,8 +925,8 @@
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>12</v>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="51" x14ac:dyDescent="0.2">
@@ -900,8 +962,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>12</v>
+      <c r="I9" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="102" x14ac:dyDescent="0.2">
@@ -912,16 +974,15 @@
         <v>50</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
@@ -941,11 +1002,31 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H21" s="14" t="s">
@@ -1028,6 +1109,9 @@
         <v>36</v>
       </c>
       <c r="D28" s="4"/>
+      <c r="H28" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
@@ -1038,6 +1122,9 @@
       </c>
       <c r="D29" s="4">
         <v>0.89800000000000002</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1123,6 +1210,42 @@
         <v>56</v>
       </c>
       <c r="D50" s="4"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E15D3-86F3-1940-9D59-7B531F6C69EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97627832-8565-154A-8797-E309A85BEDEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Model</t>
   </si>
@@ -322,6 +322,17 @@
     <t>2019 data</t>
   </si>
   <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - higher smoothing -&gt; better performance
+ - SWA doesn’t work
+ - More augmentation (heavy augs) -&gt; better performance</t>
+  </si>
+  <si>
+    <t>0.895/0.893</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -347,7 +358,7 @@
 - epoch = 15
 - celoss
 - cutmix+fmix
-</t>
+ - 5 x tta</t>
     </r>
   </si>
   <si>
@@ -356,16 +367,44 @@
 - warmupscheduler
 - epoch = 15
 - labelsmoothloss
+- cutmix + fmix
+</t>
+  </si>
+  <si>
+    <t>0.893/0.895</t>
+  </si>
+  <si>
+    <t>0.896/0.881</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nfnet (nf-resnet50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Adam
+- cosinewarmrestart
+- epoch = 15
+- focalcosine
 - cutmix
-</t>
-  </si>
-  <si>
-    <t>Findings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - higher smoothing -&gt; better performance
- - SWA doesn’t work
- - More augmentation (heavy augs) -&gt; better performance</t>
+ - 5 x tta
+- 2019 data</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -809,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
-  <dimension ref="A2:I64"/>
+  <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1149,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="H28" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1124,7 +1163,7 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1191,7 +1230,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>55</v>
       </c>
@@ -1211,7 +1250,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>15</v>
       </c>
@@ -1222,14 +1261,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>15</v>
       </c>
@@ -1240,12 +1281,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1602</v>
+      </c>
       <c r="B64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1702</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/cassava_/cassavana_kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97627832-8565-154A-8797-E309A85BEDEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5778E-8739-5F49-B3DB-BBD63223B86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="920" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="25500" windowHeight="18600" xr2:uid="{A6265A70-2789-1444-8A69-A4166FAAE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Model</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>visiontransformer</t>
-  </si>
-  <si>
-    <t>snapmix/fmix</t>
   </si>
   <si>
     <t>ensemble</t>
@@ -405,6 +402,9 @@
  - 5 x tta
 - 2019 data</t>
     </r>
+  </si>
+  <si>
+    <t>snapmix</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6076A0-A2F9-E148-AB80-5AA11FFD9955}">
   <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,142 +879,142 @@
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="4">
         <v>0.89700000000000002</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4"/>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4">
         <v>0.89800000000000002</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="4">
         <v>0.89900000000000002</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="I10" s="12"/>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="12"/>
     </row>
@@ -1032,54 +1032,56 @@
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H15" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>1</v>
@@ -1088,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1096,19 +1098,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <v>0.876</v>
       </c>
       <c r="D24" s="4"/>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <v>0.88600000000000001</v>
@@ -1117,12 +1119,12 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>0.88900000000000001</v>
@@ -1133,7 +1135,7 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4">
         <v>0.874</v>
@@ -1142,33 +1144,33 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4"/>
       <c r="H28" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="4">
         <v>0.89800000000000002</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1190,7 +1192,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -1201,10 +1203,10 @@
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -1213,10 +1215,10 @@
         <v>44242</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -1232,7 +1234,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>1</v>
@@ -1243,16 +1245,16 @@
     </row>
     <row r="50" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>1</v>
@@ -1263,16 +1265,16 @@
     </row>
     <row r="56" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1</v>
@@ -1286,10 +1288,10 @@
         <v>1602</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="4"/>
     </row>
@@ -1298,10 +1300,10 @@
         <v>1702</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="4"/>
     </row>
